--- a/configs/credentials.xlsx
+++ b/configs/credentials.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Hybrid-Framework\Sauce_demo_Library\configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA86B909-E1CA-44B9-95DB-7F2A1ED386B6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26597DE7-E4E5-423F-9B29-31FEBE315F32}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18720" windowHeight="5610" xr2:uid="{43D297B7-5E3B-4C78-8B34-4A29B4788D2E}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Username</t>
   </si>
@@ -42,15 +42,6 @@
     <t>TestCaseName</t>
   </si>
   <si>
-    <t>Validate_invalid_Login_Scenario</t>
-  </si>
-  <si>
-    <t>abcd_user</t>
-  </si>
-  <si>
-    <t>Abc@123</t>
-  </si>
-  <si>
     <t>Validate_Login_Scenario</t>
   </si>
   <si>
@@ -60,23 +51,29 @@
     <t>Willies</t>
   </si>
   <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>ZipCode</t>
+  </si>
+  <si>
+    <t>Validate_Login_With_Invalid_Input</t>
+  </si>
+  <si>
+    <t>locked_out_user</t>
+  </si>
+  <si>
     <t>validate_e2e_Checkout</t>
-  </si>
-  <si>
-    <t>Firstname</t>
-  </si>
-  <si>
-    <t>Lastname</t>
-  </si>
-  <si>
-    <t>ZipCode</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,14 +86,6 @@
       <color rgb="FF000000"/>
       <name val="Courier New"/>
       <family val="3"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -124,25 +113,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -458,39 +441,39 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>14</v>
+      <c r="D1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>8</v>
+      <c r="A2" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -498,27 +481,33 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="1">
+        <v>12345</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>5</v>
+      <c r="A3" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>11</v>
+      <c r="A4" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>2</v>
@@ -527,20 +516,17 @@
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F4" s="1">
         <v>12345</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{092CB6E3-6A5C-433E-9306-DCB89B11615D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>